--- a/StructureDefinition-cbs-patient.xlsx
+++ b/StructureDefinition-cbs-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="524">
   <si>
     <t>Path</t>
   </si>
@@ -888,6 +888,10 @@
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>addr</t>
   </si>
   <si>
@@ -1006,6 +1010,46 @@
   </si>
   <si>
     <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.line.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Patient.address.line.extension</t>
+  </si>
+  <si>
+    <t>censusTract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-censusTract}
+</t>
+  </si>
+  <si>
+    <t>A geographic sub-unit delineated for demographic purposes.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=CEN]</t>
+  </si>
+  <si>
+    <t>Patient.address.line.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Patient.address.city</t>
@@ -1154,6 +1198,25 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>Usual-Residence</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>Address-at-Diagnosis</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1739,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1749,7 +1812,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -5676,7 +5739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>271</v>
       </c>
@@ -5750,16 +5813,14 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>271</v>
@@ -5777,16 +5838,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5794,7 +5855,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5906,7 +5967,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6020,7 +6081,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6046,16 +6107,16 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6068,7 +6129,7 @@
         <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -6084,7 +6145,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -6102,7 +6163,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6117,7 +6178,7 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6126,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6134,7 +6195,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6160,13 +6221,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6180,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6195,10 +6256,10 @@
         <v>171</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6216,7 +6277,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6231,7 +6292,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6240,7 +6301,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6248,7 +6309,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6274,16 +6335,16 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6296,7 +6357,7 @@
         <v>44</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>44</v>
@@ -6332,7 +6393,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6347,7 +6408,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6356,7 +6417,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6364,7 +6425,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6390,10 +6451,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6408,7 +6469,7 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>44</v>
@@ -6444,7 +6505,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6459,7 +6520,7 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6468,19 +6529,19 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6490,13 +6551,13 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>53</v>
@@ -6520,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>44</v>
@@ -6556,7 +6617,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6568,10 +6629,10 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6580,7 +6641,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6588,18 +6649,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6608,20 +6669,18 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6634,7 +6693,7 @@
         <v>44</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>44</v>
@@ -6658,34 +6717,32 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>128</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6694,7 +6751,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6702,11 +6759,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6722,16 +6781,16 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6782,22 +6841,22 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6806,19 +6865,19 @@
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6828,22 +6887,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6858,7 +6917,7 @@
         <v>44</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>44</v>
@@ -6867,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>44</v>
@@ -6894,7 +6953,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6906,10 +6965,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6918,7 +6977,7 @@
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6926,11 +6985,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6952,14 +7011,12 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6972,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>44</v>
@@ -7008,7 +7065,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7023,7 +7080,7 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7032,19 +7089,19 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7054,7 +7111,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7063,18 +7120,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7086,7 +7143,7 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7122,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7137,7 +7194,7 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
@@ -7146,19 +7203,19 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7168,27 +7225,25 @@
         <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7212,13 +7267,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7236,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7251,28 +7306,28 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7282,29 +7337,25 @@
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>374</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7316,7 +7367,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7352,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7367,24 +7418,24 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7395,32 +7446,30 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7468,13 +7517,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7483,24 +7532,24 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7511,31 +7560,29 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7548,7 +7595,7 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>44</v>
@@ -7584,41 +7631,43 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>395</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7630,25 +7679,29 @@
         <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7696,31 +7749,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7728,18 +7781,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7751,17 +7804,15 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7810,19 +7861,19 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>125</v>
@@ -7842,11 +7893,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7859,26 +7910,24 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>164</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>165</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7914,19 +7963,19 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7941,7 +7990,7 @@
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7956,9 +8005,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7966,32 +8015,34 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8001,10 +8052,10 @@
         <v>44</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8016,13 +8067,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8040,13 +8091,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8055,16 +8106,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>410</v>
+        <v>291</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8072,7 +8123,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>293</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8092,21 +8143,21 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8118,7 +8169,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8130,13 +8181,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8154,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8169,16 +8220,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8186,7 +8237,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8197,7 +8248,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8206,22 +8257,22 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8234,7 +8285,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8270,13 +8321,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8285,24 +8336,24 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>310</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8313,30 +8364,28 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8348,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>44</v>
@@ -8384,13 +8433,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8399,28 +8448,28 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8430,27 +8479,25 @@
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8462,7 +8509,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8474,13 +8521,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8498,7 +8545,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>336</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8513,16 +8560,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8530,11 +8577,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8550,21 +8597,21 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8576,7 +8623,7 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>44</v>
@@ -8612,7 +8659,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8621,34 +8668,34 @@
         <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8658,22 +8705,22 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8724,7 +8771,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8739,60 +8786,56 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8804,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>44</v>
@@ -8840,13 +8883,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8855,24 +8898,24 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8886,24 +8929,26 @@
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>122</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8952,7 +8997,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8964,10 +9009,10 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -8976,49 +9021,49 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9030,7 +9075,7 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>44</v>
@@ -9066,22 +9111,22 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9090,50 +9135,52 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C65" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9182,7 +9229,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9194,19 +9241,19 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9214,7 +9261,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>281</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9222,7 +9269,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -9237,20 +9284,16 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9274,13 +9317,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9298,10 +9341,10 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>51</v>
@@ -9310,19 +9353,19 @@
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>459</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9330,18 +9373,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9353,20 +9396,18 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9402,85 +9443,87 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>467</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>283</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>471</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9489,10 +9532,10 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9504,13 +9547,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9528,13 +9571,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9543,16 +9586,16 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>292</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9560,7 +9603,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>293</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9583,20 +9626,18 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>480</v>
+        <v>295</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9608,7 +9649,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9620,13 +9661,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9644,7 +9685,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>478</v>
+        <v>300</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9659,16 +9700,16 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9676,7 +9717,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9687,31 +9728,31 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>303</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9724,7 +9765,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9760,13 +9801,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9775,24 +9816,24 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>311</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9803,25 +9844,25 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9836,7 +9877,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9872,22 +9913,22 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9896,48 +9937,46 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>331</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9950,7 +9989,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9986,22 +10025,22 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10010,7 +10049,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10018,43 +10057,41 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10066,7 +10103,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10102,22 +10139,22 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10126,29 +10163,29 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10157,17 +10194,15 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>494</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10216,10 +10251,10 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>493</v>
+        <v>352</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>51</v>
@@ -10231,38 +10266,38 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
@@ -10271,13 +10306,13 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>500</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>501</v>
+        <v>358</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10292,7 +10327,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10304,13 +10339,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>502</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10328,10 +10363,10 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>51</v>
@@ -10343,23 +10378,3457 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10369,7 +13838,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cbs-patient.xlsx
+++ b/StructureDefinition-cbs-patient.xlsx
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>Case Based Surveillance Birth Sex Extension</t>
+    <t>Case Based Surveillance Sex Assigned at Birth Extension</t>
   </si>
   <si>
     <t>A code classifying the person's sex assigned at birth.</t>
